--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CMTHANG\playwright-everything-main\playwright-everything-main\playwright-python\session_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHAS\auto-webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4534F5C-1C21-430A-9B8D-A3321D5CC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC0C70-9313-498A-98B2-5D5A3970AB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="429" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="429" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,8 @@
     <sheet name="GIAM" sheetId="6" r:id="rId6"/>
     <sheet name="Project" sheetId="7" r:id="rId7"/>
     <sheet name="BaoCao" sheetId="8" r:id="rId8"/>
-    <sheet name="BaoCao1" sheetId="11" r:id="rId9"/>
-    <sheet name="NoCu" sheetId="9" r:id="rId10"/>
-    <sheet name="DaThanhToan" sheetId="10" r:id="rId11"/>
+    <sheet name="NoCu" sheetId="9" r:id="rId9"/>
+    <sheet name="DaThanhToan" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$C$1</definedName>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="622">
   <si>
     <t>email</t>
   </si>
@@ -1437,355 +1436,373 @@
     <t>Ngày ra báo phí</t>
   </si>
   <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>18/11/2025</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>01/11/2025</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>1,139</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>25/09/2025</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20/11/2025</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>28/08/2025</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>06/12/2025</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>10/10/2025</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>29/11/2025</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Không có dữ liệu</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>22/10/2025</t>
-  </si>
-  <si>
-    <t>01/10/2025</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>06/11/2025</t>
-  </si>
-  <si>
-    <t>01/11/2025</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>03/11/2025</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>14/10/2025</t>
-  </si>
-  <si>
-    <t>1,139</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>10/11/2025</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>25/09/2025</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>07/11/2025</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>17/10/2025</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>09/10/2025</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>05/11/2025</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>28/08/2025</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>188</t>
+    <t>236</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>CHUNG CƯ PHÚ GIA</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>30/08/2025</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>22/09/2025</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>23/10/2025</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>10/10/2025</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>CHUNG CƯ PHÚ GIA</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23/09/2025</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>19/07/2025</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30/08/2025</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>30/10/2025</t>
-  </si>
-  <si>
     <t>359</t>
   </si>
   <si>
-    <t>50</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>19/11/2025</t>
   </si>
   <si>
     <t>Mã căn hộ</t>
@@ -1998,7 +2015,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2019,7 +2036,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2066,6 +2082,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2130,9 +2159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2170,7 +2199,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2276,7 +2305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2418,7 +2447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2432,13 +2461,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2446,11 +2475,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2465,49 +2494,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2515,338 +2501,338 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="12" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11">
         <v>1668000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11">
         <v>372008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
         <v>1091322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
         <v>280000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
         <v>230000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
         <v>1164464</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
         <v>240000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11">
         <v>725184</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11">
         <v>800000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="12">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
         <v>1711582</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="12">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11">
         <v>805484</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="12">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11">
         <v>30000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="12">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11">
         <v>59420</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="12">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11">
         <v>1313257</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="12">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11">
         <v>845290</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="12">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11">
         <v>5696588</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="12">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="11">
         <v>800000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11">
         <v>80000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="12">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="11">
         <v>400000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="12">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="11">
         <v>790606</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="12">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="11">
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="12">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11">
         <v>1287984</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="12">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11">
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="12">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11">
         <v>640</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="12">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="12">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="11">
         <v>901</v>
       </c>
     </row>
@@ -2863,1185 +2849,1185 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="B16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="B19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="B21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="B23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="B24" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="B25" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="B27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="B28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="B29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="B30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="B31" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="B32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="B33" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="B34" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="B35" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="B36" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="B37" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="B38" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="B39" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="B40" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="B41" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="B42" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="B43" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="B44" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="B45" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="B46" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="B47" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="B48" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="B49" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="B50" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="B51" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="B52" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="B53" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="B54" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="B55" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="B56" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="B57" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="B58" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="B59" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="B60" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="B61" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="B62" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="B63" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+      <c r="B64" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="B65" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="B66" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+      <c r="B67" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="B68" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="B69" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+      <c r="B70" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+      <c r="B71" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+      <c r="B72" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+      <c r="B73" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
+      <c r="B74" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+      <c r="B75" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
+      <c r="B76" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="B77" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="B78" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+      <c r="B79" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+      <c r="B80" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
+      <c r="B81" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+      <c r="B82" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+      <c r="B83" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+      <c r="B84" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+      <c r="B85" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+      <c r="B86" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+      <c r="B87" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+      <c r="B88" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="B89" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
+      <c r="B90" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+      <c r="B91" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
+      <c r="B92" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
+      <c r="B93" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
+      <c r="B94" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+      <c r="B95" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+      <c r="B96" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+      <c r="B97" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
+      <c r="B98" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+      <c r="B99" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+      <c r="B100" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
+      <c r="B101" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
+      <c r="B102" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
+      <c r="B103" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
+      <c r="B104" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
+      <c r="B105" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
+      <c r="B106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
+      <c r="B107" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+      <c r="B108" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
+      <c r="B109" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="12" t="s">
+      <c r="B110" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
+      <c r="B111" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+      <c r="B112" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
+      <c r="B113" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="12" t="s">
+      <c r="B114" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+      <c r="B115" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
+      <c r="B116" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
+      <c r="B117" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+      <c r="B118" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
+      <c r="B119" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
+      <c r="B120" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
+      <c r="B121" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
+      <c r="B122" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
+      <c r="B123" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
+      <c r="B124" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
+      <c r="B125" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
+      <c r="B126" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
+      <c r="B127" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
+      <c r="B128" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
+      <c r="B129" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
+      <c r="B130" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
+      <c r="B131" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
+      <c r="B132" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
+      <c r="B133" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
+      <c r="B134" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="12" t="s">
+      <c r="B135" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
+      <c r="B136" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+      <c r="B137" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
+      <c r="B138" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="12" t="s">
+      <c r="B139" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="12" t="s">
+      <c r="B140" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="12" t="s">
+      <c r="B141" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="12" t="s">
+      <c r="B142" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="12" t="s">
+      <c r="B143" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="12" t="s">
+      <c r="B144" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="12" t="s">
+      <c r="B145" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="12" t="s">
+      <c r="B146" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4065,30 +4051,30 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>45658</v>
       </c>
       <c r="B2" s="7">
@@ -4097,12 +4083,12 @@
       <c r="C2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>45659</v>
       </c>
       <c r="B3" s="7">
@@ -4111,12 +4097,12 @@
       <c r="C3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>45660</v>
       </c>
       <c r="B4" s="7">
@@ -4125,12 +4111,12 @@
       <c r="C4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>45661</v>
       </c>
       <c r="B5" s="7">
@@ -4139,12 +4125,12 @@
       <c r="C5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>45662</v>
       </c>
       <c r="B6" s="7">
@@ -4153,12 +4139,12 @@
       <c r="C6" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>45663</v>
       </c>
       <c r="B7" s="7">
@@ -4167,12 +4153,12 @@
       <c r="C7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>45664</v>
       </c>
       <c r="B8" s="7">
@@ -4181,12 +4167,12 @@
       <c r="C8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>45665</v>
       </c>
       <c r="B9" s="7">
@@ -4195,12 +4181,12 @@
       <c r="C9" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>45666</v>
       </c>
       <c r="B10" s="7">
@@ -4209,12 +4195,12 @@
       <c r="C10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>45667</v>
       </c>
       <c r="B11" s="7">
@@ -4223,12 +4209,12 @@
       <c r="C11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>45668</v>
       </c>
       <c r="B12" s="7">
@@ -4237,12 +4223,12 @@
       <c r="C12" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>45669</v>
       </c>
       <c r="B13" s="7">
@@ -4251,12 +4237,12 @@
       <c r="C13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>45670</v>
       </c>
       <c r="B14" s="7">
@@ -4265,12 +4251,12 @@
       <c r="C14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>45671</v>
       </c>
       <c r="B15" s="7">
@@ -4279,12 +4265,12 @@
       <c r="C15" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>45672</v>
       </c>
       <c r="B16" s="7">
@@ -4293,12 +4279,12 @@
       <c r="C16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>45673</v>
       </c>
       <c r="B17" s="7">
@@ -4307,12 +4293,12 @@
       <c r="C17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>45674</v>
       </c>
       <c r="B18" s="7">
@@ -4321,12 +4307,12 @@
       <c r="C18" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>45675</v>
       </c>
       <c r="B19" s="7">
@@ -4335,12 +4321,12 @@
       <c r="C19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>45676</v>
       </c>
       <c r="B20" s="7">
@@ -4349,12 +4335,12 @@
       <c r="C20" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>45677</v>
       </c>
       <c r="B21" s="7">
@@ -4363,12 +4349,12 @@
       <c r="C21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
         <v>45678</v>
       </c>
       <c r="B22" s="7">
@@ -4377,12 +4363,12 @@
       <c r="C22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>45679</v>
       </c>
       <c r="B23" s="7">
@@ -4391,12 +4377,12 @@
       <c r="C23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>45680</v>
       </c>
       <c r="B24" s="7">
@@ -4405,12 +4391,12 @@
       <c r="C24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>45681</v>
       </c>
       <c r="B25" s="7">
@@ -4419,12 +4405,12 @@
       <c r="C25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>45682</v>
       </c>
       <c r="B26" s="7">
@@ -4433,12 +4419,12 @@
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
         <v>45683</v>
       </c>
       <c r="B27" s="7">
@@ -4447,12 +4433,12 @@
       <c r="C27" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
         <v>45684</v>
       </c>
       <c r="B28" s="7">
@@ -4461,12 +4447,12 @@
       <c r="C28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
         <v>45685</v>
       </c>
       <c r="B29" s="7">
@@ -4475,12 +4461,12 @@
       <c r="C29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
         <v>45686</v>
       </c>
       <c r="B30" s="7">
@@ -4489,12 +4475,12 @@
       <c r="C30" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
         <v>45687</v>
       </c>
       <c r="B31" s="7">
@@ -4503,12 +4489,12 @@
       <c r="C31" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
         <v>45688</v>
       </c>
       <c r="B32" s="7">
@@ -4517,12 +4503,12 @@
       <c r="C32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
         <v>45690</v>
       </c>
       <c r="B33" s="7">
@@ -4531,12 +4517,12 @@
       <c r="C33" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
         <v>45691</v>
       </c>
       <c r="B34" s="7">
@@ -4545,12 +4531,12 @@
       <c r="C34" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <v>45692</v>
       </c>
       <c r="B35" s="7">
@@ -4559,12 +4545,12 @@
       <c r="C35" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
         <v>45693</v>
       </c>
       <c r="B36" s="7">
@@ -4573,12 +4559,12 @@
       <c r="C36" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
         <v>45694</v>
       </c>
       <c r="B37" s="7">
@@ -4587,12 +4573,12 @@
       <c r="C37" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="24" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="23">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
         <v>45695</v>
       </c>
       <c r="B38" s="7">
@@ -4601,12 +4587,12 @@
       <c r="C38" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
         <v>45696</v>
       </c>
       <c r="B39" s="7">
@@ -4615,12 +4601,12 @@
       <c r="C39" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="24" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
         <v>45697</v>
       </c>
       <c r="B40" s="7">
@@ -4629,12 +4615,12 @@
       <c r="C40" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="23">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
         <v>45698</v>
       </c>
       <c r="B41" s="7">
@@ -4643,12 +4629,12 @@
       <c r="C41" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
         <v>45699</v>
       </c>
       <c r="B42" s="7">
@@ -4657,12 +4643,12 @@
       <c r="C42" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
         <v>45700</v>
       </c>
       <c r="B43" s="7">
@@ -4671,12 +4657,12 @@
       <c r="C43" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
         <v>45701</v>
       </c>
       <c r="B44" s="7">
@@ -4685,12 +4671,12 @@
       <c r="C44" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
         <v>45702</v>
       </c>
       <c r="B45" s="7">
@@ -4699,12 +4685,12 @@
       <c r="C45" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="24" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="23">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
         <v>45703</v>
       </c>
       <c r="B46" s="7">
@@ -4713,12 +4699,12 @@
       <c r="C46" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
         <v>45704</v>
       </c>
       <c r="B47" s="7">
@@ -4727,12 +4713,12 @@
       <c r="C47" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
         <v>45705</v>
       </c>
       <c r="B48" s="7">
@@ -4741,12 +4727,12 @@
       <c r="C48" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
         <v>45706</v>
       </c>
       <c r="B49" s="7">
@@ -4755,12 +4741,12 @@
       <c r="C49" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="23">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
         <v>45707</v>
       </c>
       <c r="B50" s="7">
@@ -4769,12 +4755,12 @@
       <c r="C50" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
         <v>45708</v>
       </c>
       <c r="B51" s="7">
@@ -4783,12 +4769,12 @@
       <c r="C51" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
         <v>45709</v>
       </c>
       <c r="B52" s="7">
@@ -4797,12 +4783,12 @@
       <c r="C52" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="23">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
         <v>45710</v>
       </c>
       <c r="B53" s="7">
@@ -4811,12 +4797,12 @@
       <c r="C53" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="23">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
         <v>45711</v>
       </c>
       <c r="B54" s="7">
@@ -4825,12 +4811,12 @@
       <c r="C54" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
         <v>45712</v>
       </c>
       <c r="B55" s="7">
@@ -4839,12 +4825,12 @@
       <c r="C55" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
         <v>45713</v>
       </c>
       <c r="B56" s="7">
@@ -4853,12 +4839,12 @@
       <c r="C56" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="23">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
         <v>45714</v>
       </c>
       <c r="B57" s="7">
@@ -4867,12 +4853,12 @@
       <c r="C57" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="24" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
         <v>45715</v>
       </c>
       <c r="B58" s="7">
@@ -4881,12 +4867,12 @@
       <c r="C58" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="23">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
         <v>45716</v>
       </c>
       <c r="B59" s="7">
@@ -4895,12 +4881,12 @@
       <c r="C59" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="24" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="23">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
         <v>45717</v>
       </c>
       <c r="B60" s="7">
@@ -4909,12 +4895,12 @@
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
         <v>45718</v>
       </c>
       <c r="B61" s="7">
@@ -4923,12 +4909,12 @@
       <c r="C61" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="23">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
         <v>45719</v>
       </c>
       <c r="B62" s="7">
@@ -4937,12 +4923,12 @@
       <c r="C62" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
         <v>45720</v>
       </c>
       <c r="B63" s="7">
@@ -4951,12 +4937,12 @@
       <c r="C63" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
         <v>45721</v>
       </c>
       <c r="B64" s="7">
@@ -4965,12 +4951,12 @@
       <c r="C64" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="23">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
         <v>45722</v>
       </c>
       <c r="B65" s="7">
@@ -4979,12 +4965,12 @@
       <c r="C65" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="24" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
         <v>45723</v>
       </c>
       <c r="B66" s="7">
@@ -4993,12 +4979,12 @@
       <c r="C66" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="23">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
         <v>45724</v>
       </c>
       <c r="B67" s="7">
@@ -5007,12 +4993,12 @@
       <c r="C67" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="23">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="22">
         <v>45725</v>
       </c>
       <c r="B68" s="7">
@@ -5021,12 +5007,12 @@
       <c r="C68" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="24" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="22">
         <v>45726</v>
       </c>
       <c r="B69" s="7">
@@ -5035,12 +5021,12 @@
       <c r="C69" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="23">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="22">
         <v>45727</v>
       </c>
       <c r="B70" s="7">
@@ -5049,12 +5035,12 @@
       <c r="C70" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="23">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
         <v>45728</v>
       </c>
       <c r="B71" s="7">
@@ -5063,12 +5049,12 @@
       <c r="C71" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="23">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="22">
         <v>45729</v>
       </c>
       <c r="B72" s="7">
@@ -5077,12 +5063,12 @@
       <c r="C72" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="24" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="23">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="22">
         <v>45730</v>
       </c>
       <c r="B73" s="7">
@@ -5091,12 +5077,12 @@
       <c r="C73" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="23">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="22">
         <v>45731</v>
       </c>
       <c r="B74" s="7">
@@ -5105,12 +5091,12 @@
       <c r="C74" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="23">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
         <v>45732</v>
       </c>
       <c r="B75" s="7">
@@ -5119,12 +5105,12 @@
       <c r="C75" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="24" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="23">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="22">
         <v>45733</v>
       </c>
       <c r="B76" s="7">
@@ -5133,12 +5119,12 @@
       <c r="C76" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="23">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="22">
         <v>45734</v>
       </c>
       <c r="B77" s="7">
@@ -5147,12 +5133,12 @@
       <c r="C77" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="23">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="22">
         <v>45735</v>
       </c>
       <c r="B78" s="7">
@@ -5161,12 +5147,12 @@
       <c r="C78" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="23">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="22">
         <v>45736</v>
       </c>
       <c r="B79" s="7">
@@ -5175,12 +5161,12 @@
       <c r="C79" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="23">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="22">
         <v>45737</v>
       </c>
       <c r="B80" s="7">
@@ -5189,12 +5175,12 @@
       <c r="C80" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="23">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="22">
         <v>45738</v>
       </c>
       <c r="B81" s="7">
@@ -5203,12 +5189,12 @@
       <c r="C81" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="23">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="22">
         <v>45739</v>
       </c>
       <c r="B82" s="7">
@@ -5217,12 +5203,12 @@
       <c r="C82" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="23">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="22">
         <v>45740</v>
       </c>
       <c r="B83" s="7">
@@ -5231,12 +5217,12 @@
       <c r="C83" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="23">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="22">
         <v>45741</v>
       </c>
       <c r="B84" s="7">
@@ -5245,12 +5231,12 @@
       <c r="C84" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="24" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="23">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="22">
         <v>45742</v>
       </c>
       <c r="B85" s="7">
@@ -5259,12 +5245,12 @@
       <c r="C85" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="24" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="23">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
         <v>45743</v>
       </c>
       <c r="B86" s="7">
@@ -5273,12 +5259,12 @@
       <c r="C86" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="23">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="22">
         <v>45744</v>
       </c>
       <c r="B87" s="7">
@@ -5287,12 +5273,12 @@
       <c r="C87" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="24" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="23">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="22">
         <v>45745</v>
       </c>
       <c r="B88" s="7">
@@ -5301,12 +5287,12 @@
       <c r="C88" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="24" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="23">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="22">
         <v>45746</v>
       </c>
       <c r="B89" s="7">
@@ -5315,12 +5301,12 @@
       <c r="C89" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="24" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="23">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="22">
         <v>45747</v>
       </c>
       <c r="B90" s="7">
@@ -5329,12 +5315,12 @@
       <c r="C90" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="24" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="23">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="22">
         <v>45748</v>
       </c>
       <c r="B91" s="7">
@@ -5343,12 +5329,12 @@
       <c r="C91" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="24" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="23">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="22">
         <v>45749</v>
       </c>
       <c r="B92" s="7">
@@ -5357,12 +5343,12 @@
       <c r="C92" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="24" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="23">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="22">
         <v>45750</v>
       </c>
       <c r="B93" s="7">
@@ -5371,12 +5357,12 @@
       <c r="C93" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="24" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="23">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
         <v>45751</v>
       </c>
       <c r="B94" s="7">
@@ -5385,12 +5371,12 @@
       <c r="C94" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="24" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="23">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="22">
         <v>45754</v>
       </c>
       <c r="B95" s="7">
@@ -5399,12 +5385,12 @@
       <c r="C95" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="24" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="23">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="22">
         <v>45755</v>
       </c>
       <c r="B96" s="7">
@@ -5413,12 +5399,12 @@
       <c r="C96" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="23">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="22">
         <v>45756</v>
       </c>
       <c r="B97" s="7">
@@ -5427,12 +5413,12 @@
       <c r="C97" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="23">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="22">
         <v>45757</v>
       </c>
       <c r="B98" s="7">
@@ -5441,12 +5427,12 @@
       <c r="C98" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="23">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="22">
         <v>45758</v>
       </c>
       <c r="B99" s="7">
@@ -5455,12 +5441,12 @@
       <c r="C99" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="23">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="22">
         <v>45759</v>
       </c>
       <c r="B100" s="7">
@@ -5469,12 +5455,12 @@
       <c r="C100" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="24" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="23">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="22">
         <v>45760</v>
       </c>
       <c r="B101" s="7">
@@ -5483,12 +5469,12 @@
       <c r="C101" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="23">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="22">
         <v>45791</v>
       </c>
       <c r="B102" s="7">
@@ -5497,12 +5483,12 @@
       <c r="C102" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="24" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="23">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="22">
         <v>45762</v>
       </c>
       <c r="B103" s="7">
@@ -5511,12 +5497,12 @@
       <c r="C103" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="23">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="22">
         <v>45763</v>
       </c>
       <c r="B104" s="7">
@@ -5525,12 +5511,12 @@
       <c r="C104" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="D104" s="24" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="23">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="22">
         <v>45764</v>
       </c>
       <c r="B105" s="7">
@@ -5539,12 +5525,12 @@
       <c r="C105" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="23">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="22">
         <v>45765</v>
       </c>
       <c r="B106" s="7">
@@ -5553,12 +5539,12 @@
       <c r="C106" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D106" s="25" t="s">
+      <c r="D106" s="24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="23">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="22">
         <v>45766</v>
       </c>
       <c r="B107" s="7">
@@ -5567,12 +5553,12 @@
       <c r="C107" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="24" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="23">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="22">
         <v>45767</v>
       </c>
       <c r="B108" s="7">
@@ -5581,12 +5567,12 @@
       <c r="C108" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D108" s="25" t="s">
+      <c r="D108" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="23">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="22">
         <v>45768</v>
       </c>
       <c r="B109" s="7">
@@ -5595,12 +5581,12 @@
       <c r="C109" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="24" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="23">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="22">
         <v>45769</v>
       </c>
       <c r="B110" s="7">
@@ -5609,12 +5595,12 @@
       <c r="C110" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="D110" s="24" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="23">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="22">
         <v>45770</v>
       </c>
       <c r="B111" s="7">
@@ -5623,12 +5609,12 @@
       <c r="C111" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D111" s="25" t="s">
+      <c r="D111" s="24" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="23">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="22">
         <v>45771</v>
       </c>
       <c r="B112" s="7">
@@ -5637,12 +5623,12 @@
       <c r="C112" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="24" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="23">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="22">
         <v>45772</v>
       </c>
       <c r="B113" s="7">
@@ -5651,12 +5637,12 @@
       <c r="C113" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="23">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="22">
         <v>45773</v>
       </c>
       <c r="B114" s="7">
@@ -5665,12 +5651,12 @@
       <c r="C114" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D114" s="25" t="s">
+      <c r="D114" s="24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="23">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="22">
         <v>45774</v>
       </c>
       <c r="B115" s="7">
@@ -5679,12 +5665,12 @@
       <c r="C115" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="23">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="22">
         <v>45775</v>
       </c>
       <c r="B116" s="7">
@@ -5693,12 +5679,12 @@
       <c r="C116" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="24" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="23">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="22">
         <v>45810</v>
       </c>
       <c r="B117" s="7">
@@ -5707,12 +5693,12 @@
       <c r="C117" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D117" s="25" t="s">
+      <c r="D117" s="24" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="23">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="22">
         <v>45811</v>
       </c>
       <c r="B118" s="7">
@@ -5721,12 +5707,12 @@
       <c r="C118" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="24" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="23">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="22">
         <v>45812</v>
       </c>
       <c r="B119" s="7">
@@ -5735,12 +5721,12 @@
       <c r="C119" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="24" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="23">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="22">
         <v>45813</v>
       </c>
       <c r="B120" s="7">
@@ -5749,12 +5735,12 @@
       <c r="C120" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D120" s="25" t="s">
+      <c r="D120" s="24" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="23">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="22">
         <v>45814</v>
       </c>
       <c r="B121" s="7">
@@ -5763,12 +5749,12 @@
       <c r="C121" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="24" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="23">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="22">
         <v>45815</v>
       </c>
       <c r="B122" s="7">
@@ -5777,12 +5763,12 @@
       <c r="C122" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="24" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="23">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="22">
         <v>45816</v>
       </c>
       <c r="B123" s="7">
@@ -5791,12 +5777,12 @@
       <c r="C123" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="23">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="22">
         <v>45817</v>
       </c>
       <c r="B124" s="7">
@@ -5805,12 +5791,12 @@
       <c r="C124" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="24" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="23">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="22">
         <v>45818</v>
       </c>
       <c r="B125" s="7">
@@ -5819,12 +5805,12 @@
       <c r="C125" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D125" s="25" t="s">
+      <c r="D125" s="24" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="23">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="22">
         <v>45819</v>
       </c>
       <c r="B126" s="7">
@@ -5833,12 +5819,12 @@
       <c r="C126" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="24" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="23">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="22">
         <v>45820</v>
       </c>
       <c r="B127" s="7">
@@ -5847,12 +5833,12 @@
       <c r="C127" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="24" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="23">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="22">
         <v>45821</v>
       </c>
       <c r="B128" s="7">
@@ -5861,12 +5847,12 @@
       <c r="C128" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D128" s="25" t="s">
+      <c r="D128" s="24" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="23">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="22">
         <v>45822</v>
       </c>
       <c r="B129" s="7">
@@ -5875,12 +5861,12 @@
       <c r="C129" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D129" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="23">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="22">
         <v>45823</v>
       </c>
       <c r="B130" s="7">
@@ -5889,12 +5875,12 @@
       <c r="C130" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D130" s="25" t="s">
+      <c r="D130" s="24" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="23">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="22">
         <v>45824</v>
       </c>
       <c r="B131" s="7">
@@ -5903,12 +5889,12 @@
       <c r="C131" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="D131" s="24" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="23">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="22">
         <v>45825</v>
       </c>
       <c r="B132" s="7">
@@ -5917,12 +5903,12 @@
       <c r="C132" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="24" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="23">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="22">
         <v>45826</v>
       </c>
       <c r="B133" s="7">
@@ -5931,12 +5917,12 @@
       <c r="C133" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D133" s="25" t="s">
+      <c r="D133" s="24" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="23">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="22">
         <v>45827</v>
       </c>
       <c r="B134" s="7">
@@ -5945,12 +5931,12 @@
       <c r="C134" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D134" s="25" t="s">
+      <c r="D134" s="24" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="23">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="22">
         <v>45828</v>
       </c>
       <c r="B135" s="7">
@@ -5959,12 +5945,12 @@
       <c r="C135" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D135" s="25" t="s">
+      <c r="D135" s="24" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="23">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="22">
         <v>45829</v>
       </c>
       <c r="B136" s="7">
@@ -5973,12 +5959,12 @@
       <c r="C136" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="D136" s="24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="23">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="22">
         <v>45830</v>
       </c>
       <c r="B137" s="7">
@@ -5987,12 +5973,12 @@
       <c r="C137" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="23">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="22">
         <v>45831</v>
       </c>
       <c r="B138" s="7">
@@ -6001,12 +5987,12 @@
       <c r="C138" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D138" s="25" t="s">
+      <c r="D138" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="23">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="22">
         <v>45832</v>
       </c>
       <c r="B139" s="7">
@@ -6015,12 +6001,12 @@
       <c r="C139" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D139" s="25" t="s">
+      <c r="D139" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="23">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="22">
         <v>45833</v>
       </c>
       <c r="B140" s="7">
@@ -6029,12 +6015,12 @@
       <c r="C140" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D140" s="25" t="s">
+      <c r="D140" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="23">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="22">
         <v>45834</v>
       </c>
       <c r="B141" s="7">
@@ -6043,12 +6029,12 @@
       <c r="C141" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D141" s="25" t="s">
+      <c r="D141" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="23">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="22">
         <v>45835</v>
       </c>
       <c r="B142" s="7">
@@ -6057,12 +6043,12 @@
       <c r="C142" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D142" s="25" t="s">
+      <c r="D142" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="23">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="22">
         <v>45836</v>
       </c>
       <c r="B143" s="7">
@@ -6071,12 +6057,12 @@
       <c r="C143" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D143" s="25" t="s">
+      <c r="D143" s="24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="23">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="22">
         <v>45837</v>
       </c>
       <c r="B144" s="7">
@@ -6085,12 +6071,12 @@
       <c r="C144" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D144" s="25" t="s">
+      <c r="D144" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="23">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="22">
         <v>45838</v>
       </c>
       <c r="B145" s="7">
@@ -6099,12 +6085,12 @@
       <c r="C145" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D145" s="25" t="s">
+      <c r="D145" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="23">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="22">
         <v>45839</v>
       </c>
       <c r="B146" s="7">
@@ -6113,12 +6099,12 @@
       <c r="C146" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D146" s="25" t="s">
+      <c r="D146" s="24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="23">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="22">
         <v>45840</v>
       </c>
       <c r="B147" s="7">
@@ -6127,12 +6113,12 @@
       <c r="C147" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D147" s="25" t="s">
+      <c r="D147" s="24" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="23">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="22">
         <v>45841</v>
       </c>
       <c r="B148" s="7">
@@ -6141,12 +6127,12 @@
       <c r="C148" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="25" t="s">
+      <c r="D148" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="23">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="22">
         <v>45842</v>
       </c>
       <c r="B149" s="7">
@@ -6155,12 +6141,12 @@
       <c r="C149" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D149" s="25" t="s">
+      <c r="D149" s="24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="23">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="22">
         <v>45843</v>
       </c>
       <c r="B150" s="7">
@@ -6169,12 +6155,12 @@
       <c r="C150" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D150" s="25" t="s">
+      <c r="D150" s="24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="23">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="22">
         <v>45844</v>
       </c>
       <c r="B151" s="7">
@@ -6183,12 +6169,12 @@
       <c r="C151" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D151" s="25" t="s">
+      <c r="D151" s="24" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="23">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="22">
         <v>45845</v>
       </c>
       <c r="B152" s="7">
@@ -6197,12 +6183,12 @@
       <c r="C152" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D152" s="25" t="s">
+      <c r="D152" s="24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="23">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="22">
         <v>45846</v>
       </c>
       <c r="B153" s="7">
@@ -6211,12 +6197,12 @@
       <c r="C153" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D153" s="25" t="s">
+      <c r="D153" s="24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="23">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="22">
         <v>45847</v>
       </c>
       <c r="B154" s="7">
@@ -6225,12 +6211,12 @@
       <c r="C154" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="D154" s="24" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="23">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="22">
         <v>45848</v>
       </c>
       <c r="B155" s="7">
@@ -6239,12 +6225,12 @@
       <c r="C155" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D155" s="25" t="s">
+      <c r="D155" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="23">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="22">
         <v>45849</v>
       </c>
       <c r="B156" s="7">
@@ -6253,12 +6239,12 @@
       <c r="C156" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D156" s="25" t="s">
+      <c r="D156" s="24" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="23">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="22">
         <v>45850</v>
       </c>
       <c r="B157" s="7">
@@ -6267,12 +6253,12 @@
       <c r="C157" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D157" s="25" t="s">
+      <c r="D157" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="23">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="22">
         <v>45851</v>
       </c>
       <c r="B158" s="7">
@@ -6281,12 +6267,12 @@
       <c r="C158" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D158" s="25" t="s">
+      <c r="D158" s="24" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="23">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="22">
         <v>45852</v>
       </c>
       <c r="B159" s="7">
@@ -6295,12 +6281,12 @@
       <c r="C159" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D159" s="25" t="s">
+      <c r="D159" s="24" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="23">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="22">
         <v>45853</v>
       </c>
       <c r="B160" s="7">
@@ -6309,12 +6295,12 @@
       <c r="C160" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D160" s="25" t="s">
+      <c r="D160" s="24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="23">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="22">
         <v>45854</v>
       </c>
       <c r="B161" s="7">
@@ -6323,12 +6309,12 @@
       <c r="C161" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D161" s="25" t="s">
+      <c r="D161" s="24" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="23">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="22">
         <v>45855</v>
       </c>
       <c r="B162" s="7">
@@ -6337,12 +6323,12 @@
       <c r="C162" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D162" s="25" t="s">
+      <c r="D162" s="24" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="23">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="22">
         <v>45856</v>
       </c>
       <c r="B163" s="7">
@@ -6351,12 +6337,12 @@
       <c r="C163" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D163" s="25" t="s">
+      <c r="D163" s="24" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="23">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="22">
         <v>45857</v>
       </c>
       <c r="B164" s="7">
@@ -6365,12 +6351,12 @@
       <c r="C164" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D164" s="25" t="s">
+      <c r="D164" s="24" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="23">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="22">
         <v>45858</v>
       </c>
       <c r="B165" s="7">
@@ -6379,12 +6365,12 @@
       <c r="C165" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D165" s="25" t="s">
+      <c r="D165" s="24" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="23">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="22">
         <v>45859</v>
       </c>
       <c r="B166" s="7">
@@ -6393,12 +6379,12 @@
       <c r="C166" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D166" s="25" t="s">
+      <c r="D166" s="24" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="23">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="22">
         <v>45860</v>
       </c>
       <c r="B167" s="7">
@@ -6407,12 +6393,12 @@
       <c r="C167" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D167" s="25" t="s">
+      <c r="D167" s="24" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="23">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="22">
         <v>45861</v>
       </c>
       <c r="B168" s="7">
@@ -6421,12 +6407,12 @@
       <c r="C168" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D168" s="25" t="s">
+      <c r="D168" s="24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="23">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="22">
         <v>45862</v>
       </c>
       <c r="B169" s="7">
@@ -6435,12 +6421,12 @@
       <c r="C169" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D169" s="25" t="s">
+      <c r="D169" s="24" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="23">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="22">
         <v>45863</v>
       </c>
       <c r="B170" s="7">
@@ -6449,12 +6435,12 @@
       <c r="C170" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D170" s="25" t="s">
+      <c r="D170" s="24" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="23">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="22">
         <v>45864</v>
       </c>
       <c r="B171" s="7">
@@ -6463,12 +6449,12 @@
       <c r="C171" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D171" s="25" t="s">
+      <c r="D171" s="24" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="23">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="22">
         <v>45865</v>
       </c>
       <c r="B172" s="7">
@@ -6477,12 +6463,12 @@
       <c r="C172" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D172" s="25" t="s">
+      <c r="D172" s="24" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="23">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="22">
         <v>45866</v>
       </c>
       <c r="B173" s="7">
@@ -6491,12 +6477,12 @@
       <c r="C173" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D173" s="25" t="s">
+      <c r="D173" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="23">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="22">
         <v>45867</v>
       </c>
       <c r="B174" s="7">
@@ -6505,12 +6491,12 @@
       <c r="C174" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D174" s="25" t="s">
+      <c r="D174" s="24" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="23">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="22">
         <v>45868</v>
       </c>
       <c r="B175" s="7">
@@ -6519,12 +6505,12 @@
       <c r="C175" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D175" s="25" t="s">
+      <c r="D175" s="24" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="23">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="22">
         <v>45870</v>
       </c>
       <c r="B176" s="7">
@@ -6533,12 +6519,12 @@
       <c r="C176" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D176" s="25" t="s">
+      <c r="D176" s="24" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="23">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="22">
         <v>45871</v>
       </c>
       <c r="B177" s="7">
@@ -6547,12 +6533,12 @@
       <c r="C177" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D177" s="25" t="s">
+      <c r="D177" s="24" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="23">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="22">
         <v>45872</v>
       </c>
       <c r="B178" s="7">
@@ -6561,12 +6547,12 @@
       <c r="C178" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D178" s="25" t="s">
+      <c r="D178" s="24" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="23">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="22">
         <v>45873</v>
       </c>
       <c r="B179" s="7">
@@ -6575,12 +6561,12 @@
       <c r="C179" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D179" s="25" t="s">
+      <c r="D179" s="24" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="23">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="22">
         <v>45874</v>
       </c>
       <c r="B180" s="7">
@@ -6589,12 +6575,12 @@
       <c r="C180" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D180" s="25" t="s">
+      <c r="D180" s="24" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="23">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="22">
         <v>45875</v>
       </c>
       <c r="B181" s="7">
@@ -6603,12 +6589,12 @@
       <c r="C181" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D181" s="25" t="s">
+      <c r="D181" s="24" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="23">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="22">
         <v>45876</v>
       </c>
       <c r="B182" s="7">
@@ -6617,12 +6603,12 @@
       <c r="C182" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D182" s="25" t="s">
+      <c r="D182" s="24" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="23">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="22">
         <v>45877</v>
       </c>
       <c r="B183" s="7">
@@ -6631,12 +6617,12 @@
       <c r="C183" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D183" s="25" t="s">
+      <c r="D183" s="24" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="23">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="22">
         <v>45878</v>
       </c>
       <c r="B184" s="7">
@@ -6645,12 +6631,12 @@
       <c r="C184" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D184" s="25" t="s">
+      <c r="D184" s="24" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="23">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="22">
         <v>45879</v>
       </c>
       <c r="B185" s="7">
@@ -6659,12 +6645,12 @@
       <c r="C185" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D185" s="25" t="s">
+      <c r="D185" s="24" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="23">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="22">
         <v>45880</v>
       </c>
       <c r="B186" s="7">
@@ -6673,12 +6659,12 @@
       <c r="C186" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D186" s="25" t="s">
+      <c r="D186" s="24" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="23">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="22">
         <v>45881</v>
       </c>
       <c r="B187" s="7">
@@ -6687,12 +6673,12 @@
       <c r="C187" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D187" s="25" t="s">
+      <c r="D187" s="24" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="23">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="22">
         <v>45882</v>
       </c>
       <c r="B188" s="7">
@@ -6701,12 +6687,12 @@
       <c r="C188" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D188" s="25" t="s">
+      <c r="D188" s="24" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="23">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="22">
         <v>45883</v>
       </c>
       <c r="B189" s="7">
@@ -6715,12 +6701,12 @@
       <c r="C189" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D189" s="25" t="s">
+      <c r="D189" s="24" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="23">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="22">
         <v>45884</v>
       </c>
       <c r="B190" s="7">
@@ -6729,12 +6715,12 @@
       <c r="C190" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D190" s="25" t="s">
+      <c r="D190" s="24" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="23">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="22">
         <v>45885</v>
       </c>
       <c r="B191" s="7">
@@ -6743,12 +6729,12 @@
       <c r="C191" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D191" s="25" t="s">
+      <c r="D191" s="24" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="23">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="22">
         <v>45886</v>
       </c>
       <c r="B192" s="7">
@@ -6757,12 +6743,12 @@
       <c r="C192" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D192" s="25" t="s">
+      <c r="D192" s="24" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="23">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="22">
         <v>45887</v>
       </c>
       <c r="B193" s="7">
@@ -6771,12 +6757,12 @@
       <c r="C193" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D193" s="25" t="s">
+      <c r="D193" s="24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="23">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="22">
         <v>45888</v>
       </c>
       <c r="B194" s="7">
@@ -6785,12 +6771,12 @@
       <c r="C194" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D194" s="25" t="s">
+      <c r="D194" s="24" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="23">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="22">
         <v>45889</v>
       </c>
       <c r="B195" s="7">
@@ -6799,12 +6785,12 @@
       <c r="C195" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D195" s="25" t="s">
+      <c r="D195" s="24" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="23">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="22">
         <v>45890</v>
       </c>
       <c r="B196" s="7">
@@ -6813,12 +6799,12 @@
       <c r="C196" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D196" s="25" t="s">
+      <c r="D196" s="24" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="23">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="22">
         <v>45891</v>
       </c>
       <c r="B197" s="7">
@@ -6827,12 +6813,12 @@
       <c r="C197" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D197" s="25" t="s">
+      <c r="D197" s="24" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="23">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="22">
         <v>45892</v>
       </c>
       <c r="B198" s="7">
@@ -6841,12 +6827,12 @@
       <c r="C198" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D198" s="25" t="s">
+      <c r="D198" s="24" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="23">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="22">
         <v>45893</v>
       </c>
       <c r="B199" s="7">
@@ -6855,12 +6841,12 @@
       <c r="C199" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D199" s="25" t="s">
+      <c r="D199" s="24" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="23">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="22">
         <v>45894</v>
       </c>
       <c r="B200" s="7">
@@ -6869,12 +6855,12 @@
       <c r="C200" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D200" s="25" t="s">
+      <c r="D200" s="24" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="23">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="22">
         <v>45895</v>
       </c>
       <c r="B201" s="7">
@@ -6883,12 +6869,12 @@
       <c r="C201" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D201" s="25" t="s">
+      <c r="D201" s="24" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="23">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="22">
         <v>45896</v>
       </c>
       <c r="B202" s="7">
@@ -6897,12 +6883,12 @@
       <c r="C202" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D202" s="25" t="s">
+      <c r="D202" s="24" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="23">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="22">
         <v>45897</v>
       </c>
       <c r="B203" s="7">
@@ -6911,12 +6897,12 @@
       <c r="C203" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D203" s="25" t="s">
+      <c r="D203" s="24" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="23">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="22">
         <v>45898</v>
       </c>
       <c r="B204" s="7">
@@ -6925,12 +6911,12 @@
       <c r="C204" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D204" s="25" t="s">
+      <c r="D204" s="24" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="23">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="22">
         <v>45899</v>
       </c>
       <c r="B205" s="7">
@@ -6939,12 +6925,12 @@
       <c r="C205" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D205" s="25" t="s">
+      <c r="D205" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="23">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="22">
         <v>45900</v>
       </c>
       <c r="B206" s="7">
@@ -6953,12 +6939,12 @@
       <c r="C206" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D206" s="25" t="s">
+      <c r="D206" s="24" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="23">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="22">
         <v>45901</v>
       </c>
       <c r="B207" s="7">
@@ -6967,12 +6953,12 @@
       <c r="C207" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D207" s="25" t="s">
+      <c r="D207" s="24" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="23">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="22">
         <v>45902</v>
       </c>
       <c r="B208" s="7">
@@ -6981,12 +6967,12 @@
       <c r="C208" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D208" s="25" t="s">
+      <c r="D208" s="24" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="23">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="22">
         <v>45903</v>
       </c>
       <c r="B209" s="7">
@@ -6995,12 +6981,12 @@
       <c r="C209" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D209" s="25" t="s">
+      <c r="D209" s="24" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="23">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="22">
         <v>45904</v>
       </c>
       <c r="B210" s="7">
@@ -7009,12 +6995,12 @@
       <c r="C210" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D210" s="25" t="s">
+      <c r="D210" s="24" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="23">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="22">
         <v>45905</v>
       </c>
       <c r="B211" s="7">
@@ -7023,12 +7009,12 @@
       <c r="C211" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D211" s="25" t="s">
+      <c r="D211" s="24" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="23">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="22">
         <v>45906</v>
       </c>
       <c r="B212" s="7">
@@ -7037,12 +7023,12 @@
       <c r="C212" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D212" s="25" t="s">
+      <c r="D212" s="24" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="23">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="22">
         <v>45907</v>
       </c>
       <c r="B213" s="7">
@@ -7051,12 +7037,12 @@
       <c r="C213" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D213" s="25" t="s">
+      <c r="D213" s="24" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="23">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="22">
         <v>45908</v>
       </c>
       <c r="B214" s="7">
@@ -7065,12 +7051,12 @@
       <c r="C214" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D214" s="25" t="s">
+      <c r="D214" s="24" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="23">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="22">
         <v>45909</v>
       </c>
       <c r="B215" s="7">
@@ -7079,12 +7065,12 @@
       <c r="C215" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D215" s="25" t="s">
+      <c r="D215" s="24" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="23">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="22">
         <v>45910</v>
       </c>
       <c r="B216" s="7">
@@ -7093,12 +7079,12 @@
       <c r="C216" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D216" s="25" t="s">
+      <c r="D216" s="24" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="23">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="22">
         <v>45911</v>
       </c>
       <c r="B217" s="7">
@@ -7107,12 +7093,12 @@
       <c r="C217" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D217" s="25" t="s">
+      <c r="D217" s="24" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="23">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="22">
         <v>45912</v>
       </c>
       <c r="B218" s="7">
@@ -7121,12 +7107,12 @@
       <c r="C218" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D218" s="25" t="s">
+      <c r="D218" s="24" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="23">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="22">
         <v>45913</v>
       </c>
       <c r="B219" s="7">
@@ -7135,12 +7121,12 @@
       <c r="C219" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D219" s="25" t="s">
+      <c r="D219" s="24" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="23">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="22">
         <v>45914</v>
       </c>
       <c r="B220" s="7">
@@ -7149,12 +7135,12 @@
       <c r="C220" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D220" s="25" t="s">
+      <c r="D220" s="24" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="23">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="22">
         <v>45915</v>
       </c>
       <c r="B221" s="7">
@@ -7163,12 +7149,12 @@
       <c r="C221" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D221" s="25" t="s">
+      <c r="D221" s="24" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="23">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="22">
         <v>45916</v>
       </c>
       <c r="B222" s="7">
@@ -7177,12 +7163,12 @@
       <c r="C222" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D222" s="25" t="s">
+      <c r="D222" s="24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="23">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="22">
         <v>45917</v>
       </c>
       <c r="B223" s="7">
@@ -7191,12 +7177,12 @@
       <c r="C223" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D223" s="25" t="s">
+      <c r="D223" s="24" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="23">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="22">
         <v>45918</v>
       </c>
       <c r="B224" s="7">
@@ -7205,12 +7191,12 @@
       <c r="C224" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D224" s="25" t="s">
+      <c r="D224" s="24" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="23">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="22">
         <v>45919</v>
       </c>
       <c r="B225" s="7">
@@ -7219,12 +7205,12 @@
       <c r="C225" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D225" s="25" t="s">
+      <c r="D225" s="24" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="23">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="22">
         <v>45920</v>
       </c>
       <c r="B226" s="7">
@@ -7233,12 +7219,12 @@
       <c r="C226" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D226" s="25" t="s">
+      <c r="D226" s="24" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="23">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="22">
         <v>45921</v>
       </c>
       <c r="B227" s="7">
@@ -7247,12 +7233,12 @@
       <c r="C227" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D227" s="25" t="s">
+      <c r="D227" s="24" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="23">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="22">
         <v>45922</v>
       </c>
       <c r="B228" s="7">
@@ -7261,12 +7247,12 @@
       <c r="C228" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D228" s="25" t="s">
+      <c r="D228" s="24" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="23">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="22">
         <v>45923</v>
       </c>
       <c r="B229" s="7">
@@ -7275,12 +7261,12 @@
       <c r="C229" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D229" s="25" t="s">
+      <c r="D229" s="24" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="23">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="22">
         <v>45924</v>
       </c>
       <c r="B230" s="7">
@@ -7289,12 +7275,12 @@
       <c r="C230" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D230" s="25" t="s">
+      <c r="D230" s="24" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="23">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="22">
         <v>45925</v>
       </c>
       <c r="B231" s="7">
@@ -7303,12 +7289,12 @@
       <c r="C231" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D231" s="25" t="s">
+      <c r="D231" s="24" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="23">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="22">
         <v>45926</v>
       </c>
       <c r="B232" s="7">
@@ -7317,12 +7303,12 @@
       <c r="C232" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D232" s="25" t="s">
+      <c r="D232" s="24" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="23">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="22">
         <v>45927</v>
       </c>
       <c r="B233" s="7">
@@ -7331,12 +7317,12 @@
       <c r="C233" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D233" s="25" t="s">
+      <c r="D233" s="24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="23">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="22">
         <v>45928</v>
       </c>
       <c r="B234" s="7">
@@ -7345,12 +7331,12 @@
       <c r="C234" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D234" s="25" t="s">
+      <c r="D234" s="24" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="23">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="22">
         <v>45929</v>
       </c>
       <c r="B235" s="7">
@@ -7359,12 +7345,12 @@
       <c r="C235" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D235" s="25" t="s">
+      <c r="D235" s="24" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="23">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="22">
         <v>45930</v>
       </c>
       <c r="B236" s="7">
@@ -7373,7 +7359,7 @@
       <c r="C236" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D236" s="25" t="s">
+      <c r="D236" s="24" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7391,87 +7377,87 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.88671875" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="8.85546875" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+    <row r="2" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1603</v>
       </c>
-      <c r="B2" s="17" t="str">
+      <c r="B2" s="16" t="str">
         <f>IF(VALUE(RIGHT(A2,2))&lt;=25,"BLOCK A","BLOCK B")</f>
         <v>BLOCK A</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>45927</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B3" s="17" t="str">
+      <c r="B3" s="16" t="str">
         <f>IF(VALUE(RIGHT(A3,2))&lt;=25,"BLOCK A","BLOCK B")</f>
         <v>BLOCK A</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>45929</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="B4" s="17" t="str">
+      <c r="B4" s="16" t="str">
         <f>IF(VALUE(RIGHT(A4,2))&lt;=25,"BLOCK A","BLOCK B")</f>
         <v>BLOCK A</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>45929</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" s="16" t="str">
         <f>IF(VALUE(RIGHT(A5,2))&lt;=25,"BLOCK A","BLOCK B")</f>
         <v>BLOCK A</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>45930</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7489,15 +7475,15 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="6" customWidth="1"/>
-    <col min="3" max="24" width="8.88671875" style="6" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="22.42578125" style="6" customWidth="1"/>
+    <col min="3" max="25" width="8.85546875" style="6" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>392</v>
       </c>
@@ -7505,7 +7491,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>403</v>
       </c>
@@ -7513,7 +7499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>404</v>
       </c>
@@ -7521,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>405</v>
       </c>
@@ -7529,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>406</v>
       </c>
@@ -7537,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>407</v>
       </c>
@@ -7545,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>408</v>
       </c>
@@ -7567,17 +7553,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>410</v>
       </c>
@@ -7596,72 +7582,72 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>423</v>
       </c>
@@ -7669,7 +7655,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>425</v>
       </c>
@@ -7677,137 +7663,137 @@
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>452</v>
       </c>
@@ -7820,303 +7806,301 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="14" customWidth="1"/>
-    <col min="11" max="26" width="8.88671875" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="40.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="27" width="8.85546875" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="29" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" s="4">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F3" s="5">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="5">
+        <v>84</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F5" s="5">
+        <v>69</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F2" s="5">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7" s="5">
+        <v>217</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="F3" s="5">
-        <v>82</v>
-      </c>
-      <c r="G3" s="5">
-        <v>41</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F4" s="5">
-        <v>69</v>
-      </c>
-      <c r="G4" s="5">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="F5" s="5">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5">
-        <v>28</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="F6" s="5">
-        <v>202</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="F7" s="5">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5">
-        <v>26</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>494</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>496</v>
       </c>
       <c r="F8" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J8" s="19"/>
+        <v>479</v>
+      </c>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>442</v>
+      <c r="A9" s="25" t="s">
+        <v>443</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>500</v>
       </c>
       <c r="F9" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G9" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>501</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J9" s="19"/>
+        <v>479</v>
+      </c>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>441</v>
+      <c r="A10" s="25" t="s">
+        <v>442</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>502</v>
@@ -8128,415 +8112,415 @@
         <v>504</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="F10" s="5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G10" s="5">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J10" s="19"/>
+        <v>479</v>
+      </c>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" s="5">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F13" s="5">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="F12" s="5">
-        <v>6</v>
-      </c>
-      <c r="G12" s="5">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F13" s="5">
-        <v>36</v>
-      </c>
-      <c r="G13" s="5">
-        <v>34</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>518</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="F14" s="5">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5">
+        <v>38</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F14" s="5">
+      <c r="C15" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F15" s="5">
         <v>4</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="5">
         <v>5</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F16" s="5">
+        <v>17</v>
+      </c>
+      <c r="G16" s="5">
+        <v>27</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="F15" s="5">
-        <v>17</v>
-      </c>
-      <c r="G15" s="5">
-        <v>23</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E17" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F17" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="5">
-        <v>17</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="G17" s="5">
+        <v>24</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F17" s="5">
+      <c r="D18" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="G17" s="5">
-        <v>7</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="B19" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F19" s="5">
         <v>15</v>
       </c>
-      <c r="G18" s="5">
-        <v>39</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="G19" s="5">
+        <v>46</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="C20" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="F20" s="5">
         <v>33</v>
       </c>
-      <c r="G19" s="5">
-        <v>52</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="G20" s="5">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F20" s="5">
-        <v>17</v>
-      </c>
-      <c r="G20" s="5">
-        <v>9</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>545</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F21" s="5">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G21" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J21" s="19"/>
+        <v>473</v>
+      </c>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F22" s="5">
+        <v>46</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="B23" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="F23" s="5">
         <v>5</v>
       </c>
-      <c r="G22" s="5">
-        <v>103</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="G23" s="5">
+        <v>111</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>417</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="F23" s="5">
-        <v>79</v>
-      </c>
-      <c r="G23" s="5">
-        <v>92</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J23" s="19"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>552</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>553</v>
@@ -8545,234 +8529,264 @@
         <v>554</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="F24" s="5">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G24" s="5">
+        <v>106</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F25" s="5">
+        <v>35</v>
+      </c>
+      <c r="G25" s="5">
+        <v>22</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F26" s="5">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5">
         <v>20</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F25" s="5">
-        <v>15</v>
-      </c>
-      <c r="G25" s="5">
-        <v>20</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="H26" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="F27" s="5">
+        <v>33</v>
+      </c>
+      <c r="G27" s="5">
+        <v>49</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F28" s="5">
+        <v>16</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="F26" s="5">
-        <v>33</v>
-      </c>
-      <c r="G26" s="5">
-        <v>44</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F27" s="5">
-        <v>16</v>
-      </c>
-      <c r="G27" s="5">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
-        <v>7</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>573</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
       </c>
       <c r="G29" s="5">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J29" s="19"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D30" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>576</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>578</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
       </c>
       <c r="G30" s="5">
-        <v>6</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>577</v>
+        <v>52</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="B32" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J31" s="19"/>
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J32" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8781,35 +8795,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AAA1AE-43D4-4087-B523-41F2CC30A317}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="1" sqref="A2:XFD2 B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="8.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>419</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>